--- a/public/uploaded/temp.xlsx
+++ b/public/uploaded/temp.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="28">
   <si>
     <t>Name</t>
   </si>
@@ -91,14 +91,23 @@
     <t>Cabinet</t>
   </si>
   <si>
+    <t>BDT</t>
+  </si>
+  <si>
+    <t>server2</t>
+  </si>
+  <si>
     <t>BigData</t>
+  </si>
+  <si>
+    <t>server1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,6 +242,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -576,9 +591,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -949,10 +965,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,6 +1024,9 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
@@ -1026,7 +1045,7 @@
       <c r="G2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I2" t="s">
@@ -1049,6 +1068,9 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
@@ -1067,7 +1089,7 @@
       <c r="G3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I3" t="s">
@@ -1086,6 +1108,94 @@
         <v>40390</v>
       </c>
       <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="M4" s="1">
+        <v>40390</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5" s="1">
+        <v>40390</v>
+      </c>
+      <c r="N5">
         <v>0</v>
       </c>
     </row>
